--- a/Direccionamiento.xlsx
+++ b/Direccionamiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\Caso de Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CAB922-E49E-413C-A270-AA46D79F3EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4C274-E4CB-4933-93F1-0923D911E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{061D41F9-92AE-4054-8BBD-64FFFB87EB4D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="6" xr2:uid="{061D41F9-92AE-4054-8BBD-64FFFB87EB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="ANALISIS" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SEDE33" sheetId="5" r:id="rId4"/>
     <sheet name="SEDE05" sheetId="6" r:id="rId5"/>
     <sheet name="SEDE16" sheetId="7" r:id="rId6"/>
+    <sheet name="IPV6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
   <si>
     <t>LAN ID</t>
   </si>
@@ -454,17 +455,140 @@
     <t>ROUTER</t>
   </si>
   <si>
-    <t>SEDE33 - PRINCIPAL</t>
-  </si>
-  <si>
     <t>SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rectoría</t>
+  </si>
+  <si>
+    <t>2000:acad:1:a::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:14::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:32::/64</t>
+  </si>
+  <si>
+    <t>Gestión TIC</t>
+  </si>
+  <si>
+    <t>2000:acad:1:3c::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:6e::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:78::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:82::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:8c::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:96::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:a0::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:d2::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:dc::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:e6::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:f0::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:fa::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:104::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:136::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:140::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:14a::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:154::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:15e::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:168::/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:172::/64</t>
+  </si>
+  <si>
+    <t>IPV6</t>
+  </si>
+  <si>
+    <t>10.5.0.1</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>10.5.0.2</t>
+  </si>
+  <si>
+    <t>10.5.0.3</t>
+  </si>
+  <si>
+    <t>10.5.0.4</t>
+  </si>
+  <si>
+    <t>10.5.0.5</t>
+  </si>
+  <si>
+    <t>10.5.0.6</t>
+  </si>
+  <si>
+    <t>10.5.0.8</t>
+  </si>
+  <si>
+    <t>10.5.64.1</t>
+  </si>
+  <si>
+    <t>10.5.64.2</t>
+  </si>
+  <si>
+    <t>10..5.128.1</t>
+  </si>
+  <si>
+    <t>10..5.128.2</t>
+  </si>
+  <si>
+    <t>10.5.192.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +637,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1112,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,37 +1280,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,10 +1322,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,44 +1352,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,90 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,75 +1514,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9FD331-E8CA-4B62-85F8-56473C7CA557}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1803,11 +1990,11 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1831,915 +2018,915 @@
     </row>
     <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="8">
         <v>10</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="8">
         <v>10</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="21">
         <f>ROUNDUP(H6*1.1,0)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
         <f>ROUNDUP(I6/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21">
         <f>ROUNDUP(I6+K6,0)</f>
         <v>12</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36">
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
         <f>M6+2</f>
         <v>14</v>
       </c>
-      <c r="P6" s="38"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1">
         <v>31</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <f>ROUNDUP(H7*1.1,0)</f>
         <v>35</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="22">
+      <c r="J7" s="24"/>
+      <c r="K7" s="19">
         <f>ROUNDUP(I7/24,0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19">
         <f>ROUNDUP(I7+K7,0)</f>
         <v>37</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19">
         <f t="shared" ref="O7:O30" si="0">M7+2</f>
         <v>39</v>
       </c>
-      <c r="P7" s="39"/>
+      <c r="P7" s="20"/>
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1">
         <v>200</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <f t="shared" ref="I8:I29" si="1">ROUNDUP(H8*1.1,0)</f>
         <v>220</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="22">
+      <c r="J8" s="24"/>
+      <c r="K8" s="19">
         <f t="shared" ref="K8:K29" si="2">ROUNDUP(I8/24,0)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19">
         <f t="shared" ref="M8:M29" si="3">ROUNDUP(I8+K8,0)</f>
         <v>230</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="P8" s="39"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="22">
+      <c r="J9" s="24"/>
+      <c r="K9" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="P9" s="39"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="1">
         <v>50</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="22">
+      <c r="J10" s="24"/>
+      <c r="K10" s="19">
         <v>1</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22">
+      <c r="N10" s="19"/>
+      <c r="O10" s="19">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="1">
         <v>60</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="22">
+      <c r="J11" s="24"/>
+      <c r="K11" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P11" s="39"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="9">
         <v>110</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="9">
         <v>50</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="17">
+      <c r="J12" s="26"/>
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="9">
         <v>120</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="17">
+      <c r="J13" s="26"/>
+      <c r="K13" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
+      <c r="N13" s="15"/>
+      <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P13" s="40"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="9">
         <v>130</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="10">
         <v>33</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="17">
+      <c r="J14" s="26"/>
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="15"/>
+      <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P14" s="40"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="9">
         <v>140</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="9">
         <v>133</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="17">
+      <c r="J15" s="26"/>
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17">
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
+      <c r="N15" s="15"/>
+      <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="P15" s="40"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="9">
         <v>150</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="9">
         <v>200</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="17">
+      <c r="J16" s="26"/>
+      <c r="K16" s="15">
         <v>1</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17">
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="P16" s="40"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="9">
         <v>160</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="9">
         <v>20</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="17">
+      <c r="J17" s="26"/>
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17">
+      <c r="L17" s="15"/>
+      <c r="M17" s="15">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P17" s="40"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1">
         <v>210</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="22">
+      <c r="J18" s="24"/>
+      <c r="K18" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="P18" s="39"/>
+      <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="1">
         <v>220</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="1">
         <v>20</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="22">
+      <c r="J19" s="24"/>
+      <c r="K19" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22">
+      <c r="L19" s="19"/>
+      <c r="M19" s="19">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22">
+      <c r="N19" s="19"/>
+      <c r="O19" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P19" s="39"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="1">
         <v>230</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="22">
+      <c r="J20" s="24"/>
+      <c r="K20" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P20" s="39"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="1">
         <v>240</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="1">
         <v>205</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="23">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="22">
+      <c r="J21" s="24"/>
+      <c r="K21" s="19">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22">
+      <c r="N21" s="19"/>
+      <c r="O21" s="19">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="P21" s="39"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="1">
         <v>250</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="22">
+      <c r="J22" s="24"/>
+      <c r="K22" s="19">
         <v>1</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22">
+      <c r="N22" s="19"/>
+      <c r="O22" s="19">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="P22" s="39"/>
+      <c r="P22" s="20"/>
     </row>
     <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="1">
         <v>260</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="1">
         <v>30</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="23">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="22">
+      <c r="J23" s="24"/>
+      <c r="K23" s="19">
         <v>1</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22">
+      <c r="N23" s="19"/>
+      <c r="O23" s="19">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P23" s="39"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="9">
         <v>310</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="9">
         <v>20</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="17">
+      <c r="J24" s="26"/>
+      <c r="K24" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17">
+      <c r="L24" s="15"/>
+      <c r="M24" s="15">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17">
+      <c r="N24" s="15"/>
+      <c r="O24" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P24" s="40"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="9">
         <v>320</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="9">
         <v>50</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="17">
+      <c r="J25" s="26"/>
+      <c r="K25" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17">
+      <c r="L25" s="15"/>
+      <c r="M25" s="15">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P25" s="40"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="9">
         <v>330</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="9">
         <v>16</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="25">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="17">
+      <c r="J26" s="26"/>
+      <c r="K26" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P26" s="40"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="9">
         <v>340</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="9">
         <v>166</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="25">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="17">
+      <c r="J27" s="26"/>
+      <c r="K27" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17">
+      <c r="N27" s="15"/>
+      <c r="O27" s="15">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="P27" s="40"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="9">
         <v>350</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="9">
         <v>40</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="25">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="17">
+      <c r="J28" s="26"/>
+      <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17">
+      <c r="L28" s="15"/>
+      <c r="M28" s="15">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17">
+      <c r="N28" s="15"/>
+      <c r="O28" s="15">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="P28" s="40"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="9">
         <v>360</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="9">
         <v>20</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="17">
+      <c r="J29" s="26"/>
+      <c r="K29" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17">
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17">
+      <c r="N29" s="15"/>
+      <c r="O29" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P29" s="40"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="11">
         <v>370</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="11">
         <v>5</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="35">
         <f>ROUNDUP(H30*1.1,0)</f>
         <v>6</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="23">
+      <c r="J30" s="36"/>
+      <c r="K30" s="17">
         <f>ROUNDUP(I30/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23">
+      <c r="L30" s="17"/>
+      <c r="M30" s="17">
         <f>ROUNDUP(I30+K30,0)</f>
         <v>7</v>
       </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23">
+      <c r="N30" s="17"/>
+      <c r="O30" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P30" s="42"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B32" s="12"/>
@@ -2773,56 +2960,61 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:C17"/>
+    <mergeCell ref="B18:C23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:C11"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
@@ -2847,29 +3039,39 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:C17"/>
-    <mergeCell ref="B18:C23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
@@ -2877,38 +3079,23 @@
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,408 +3104,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEEC393-913C-4EDE-94F6-F7D5E5ACCE03}">
-  <dimension ref="B3:L31"/>
+  <dimension ref="B3:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:H23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="F6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="51"/>
+      <c r="I6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="54">
         <v>4</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="I7" s="71" t="s">
+      <c r="G7" s="55"/>
+      <c r="I7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55" t="s">
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="58"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="59"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46" t="s">
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="52"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46" t="s">
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="52"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="52"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="53"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="20" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50" t="s">
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="52"/>
+    <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="22" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="22" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="39"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="22" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="39"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:J16"/>
+  <mergeCells count="74">
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
@@ -3335,63 +3634,72 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FF944F-924B-4EA5-B6DB-6D68F29DD6D2}">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:L45"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="60"/>
       <c r="N3" s="73" t="s">
         <v>45</v>
       </c>
@@ -3415,71 +3723,71 @@
       <c r="P4" s="78"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69">
         <f>ANALISIS!M8</f>
         <v>230</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="51"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="66" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="N6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f>ANALISIS!M9</f>
         <v>115</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="N7" s="71" t="s">
+      <c r="L7" s="64"/>
+      <c r="N7" s="54" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="79"/>
@@ -3488,182 +3796,177 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="52"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63">
         <f>ANALISIS!M10</f>
         <v>56</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63">
         <f>ANALISIS!M7</f>
         <v>37</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63">
         <f>ANALISIS!M11</f>
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63">
         <v>12</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -3680,13 +3983,23 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="E9:G10"/>
     <mergeCell ref="H9:J10"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3698,7 +4011,7 @@
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="E7" sqref="E7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3708,27 +4021,27 @@
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="101" t="s">
+      <c r="F3" s="98"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="101" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="105"/>
+      <c r="L3" s="101"/>
       <c r="N3" s="73" t="s">
         <v>66</v>
       </c>
@@ -3736,49 +4049,49 @@
       <c r="P3" s="75"/>
     </row>
     <row r="4" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="106"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="102"/>
       <c r="N4" s="76"/>
       <c r="O4" s="77"/>
       <c r="P4" s="78"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109">
+      <c r="C5" s="104"/>
+      <c r="D5" s="106">
         <f>ANALISIS!M16</f>
         <v>221</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="110" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="110" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="112"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="92"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="94"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="86"/>
       <c r="F6" s="87"/>
       <c r="G6" s="88"/>
@@ -3787,18 +4100,18 @@
       <c r="J6" s="88"/>
       <c r="K6" s="86"/>
       <c r="L6" s="90"/>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="85"/>
-      <c r="D7" s="93">
+      <c r="D7" s="112">
         <f>ANALISIS!M15</f>
         <v>154</v>
       </c>
@@ -3816,7 +4129,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="89"/>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="54" t="s">
         <v>67</v>
       </c>
       <c r="O7" s="79"/>
@@ -3825,9 +4138,9 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="92"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="86"/>
       <c r="F8" s="87"/>
       <c r="G8" s="88"/>
@@ -3838,11 +4151,11 @@
       <c r="L8" s="90"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="85"/>
-      <c r="D9" s="93">
+      <c r="D9" s="112">
         <f>ANALISIS!M12</f>
         <v>58</v>
       </c>
@@ -3862,9 +4175,9 @@
       <c r="L9" s="89"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="92"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="88"/>
-      <c r="D10" s="94"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="86"/>
       <c r="F10" s="87"/>
       <c r="G10" s="88"/>
@@ -3875,133 +4188,123 @@
       <c r="L10" s="90"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="85"/>
-      <c r="D11" s="93">
+      <c r="D11" s="112">
         <f>ANALISIS!M14</f>
         <v>39</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="92"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="88"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="52"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63">
         <f>ANALISIS!M17</f>
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63">
         <f>ANALISIS!M13</f>
         <v>12</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -4018,13 +4321,23 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="E9:G10"/>
     <mergeCell ref="H9:J10"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4034,35 +4347,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B2D8D9-EDF7-48C2-B912-CADA068A2E9B}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="60"/>
       <c r="N3" s="73" t="s">
         <v>86</v>
       </c>
@@ -4086,256 +4399,246 @@
       <c r="P4" s="78"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109">
+      <c r="C5" s="104"/>
+      <c r="D5" s="106">
         <f>ANALISIS!M21</f>
         <v>236</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="51"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="92"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="88"/>
       <c r="D6" s="113"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="66" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="N6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f>ANALISIS!M22</f>
         <v>111</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="N7" s="69" t="s">
+      <c r="L7" s="64"/>
+      <c r="N7" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="52"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63">
         <f>ANALISIS!M18</f>
         <v>81</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="85"/>
-      <c r="D11" s="46">
+      <c r="D11" s="63">
         <f>ANALISIS!M23</f>
         <v>34</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="92"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="88"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="52"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63">
         <f>ANALISIS!M19</f>
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63">
         <f>ANALISIS!M20</f>
         <v>7</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -4352,13 +4655,23 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="E9:G10"/>
     <mergeCell ref="H9:J10"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4369,34 +4682,34 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="E13" sqref="E13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="60"/>
       <c r="N3" s="73" t="s">
         <v>89</v>
       </c>
@@ -4420,293 +4733,288 @@
       <c r="P4" s="78"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69">
         <f>ANALISIS!M27</f>
         <v>191</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="51"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="66" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="N6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f>ANALISIS!M25</f>
         <v>58</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="N7" s="69" t="s">
+      <c r="L7" s="64"/>
+      <c r="N7" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="52"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63">
         <f>ANALISIS!M28</f>
         <v>45</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63">
         <f>ANALISIS!M24</f>
         <v>23</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63">
         <f>ANALISIS!M29</f>
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63">
         <f>ANALISIS!M26</f>
         <v>19</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="52"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63">
         <f>ANALISIS!M30</f>
         <v>7</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46" t="s">
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="52"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="53"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="K17:L18"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -4723,18 +5031,383 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="E9:G10"/>
     <mergeCell ref="H9:J10"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCE0CA-9C82-4A8D-8FB0-DCE29C925582}">
+  <dimension ref="B2:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.46484375" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="130">
+        <v>10</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="119"/>
+      <c r="C6" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="115">
+        <v>20</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="119"/>
+      <c r="C7" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="115">
+        <v>30</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="119"/>
+      <c r="C8" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="115">
+        <v>40</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="119"/>
+      <c r="C9" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="115">
+        <v>50</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="119"/>
+      <c r="C10" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="115">
+        <v>110</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="119"/>
+      <c r="C12" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="115">
+        <v>120</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="119"/>
+      <c r="C13" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="115">
+        <v>130</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="119"/>
+      <c r="C14" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="115">
+        <v>140</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="132"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="119"/>
+      <c r="C15" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="115">
+        <v>150</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="119"/>
+      <c r="C16" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="115">
+        <v>160</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="115">
+        <v>210</v>
+      </c>
+      <c r="E17" s="120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="119"/>
+      <c r="C18" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="115">
+        <v>220</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="119"/>
+      <c r="C19" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="115">
+        <v>230</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="119"/>
+      <c r="C20" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="115">
+        <v>240</v>
+      </c>
+      <c r="E20" s="120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="119"/>
+      <c r="C21" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="115">
+        <v>250</v>
+      </c>
+      <c r="E21" s="120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="119"/>
+      <c r="C22" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="115">
+        <v>260</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="115">
+        <v>310</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="119"/>
+      <c r="C24" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="115">
+        <v>320</v>
+      </c>
+      <c r="E24" s="120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="119"/>
+      <c r="C25" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="115">
+        <v>330</v>
+      </c>
+      <c r="E25" s="120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="119"/>
+      <c r="C26" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="115">
+        <v>340</v>
+      </c>
+      <c r="E26" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="119"/>
+      <c r="C27" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="115">
+        <v>350</v>
+      </c>
+      <c r="E27" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="119"/>
+      <c r="C28" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="115">
+        <v>360</v>
+      </c>
+      <c r="E28" s="120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="121"/>
+      <c r="C29" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="123">
+        <v>370</v>
+      </c>
+      <c r="E29" s="124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Direccionamiento.xlsx
+++ b/Direccionamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\Caso de Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4C274-E4CB-4933-93F1-0923D911E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1138A6-5C3C-42B6-ABC8-1791516698B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="6" xr2:uid="{061D41F9-92AE-4054-8BBD-64FFFB87EB4D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
   <si>
     <t>LAN ID</t>
   </si>
@@ -582,13 +582,91 @@
   </si>
   <si>
     <t>10.5.192.1</t>
+  </si>
+  <si>
+    <t>LINK LOCAL</t>
+  </si>
+  <si>
+    <t>FE80::2</t>
+  </si>
+  <si>
+    <t>FE80::3</t>
+  </si>
+  <si>
+    <t>FE80::4</t>
+  </si>
+  <si>
+    <t>FE80::5</t>
+  </si>
+  <si>
+    <t>FE80::6</t>
+  </si>
+  <si>
+    <t>FE80::7</t>
+  </si>
+  <si>
+    <t>FE80::8</t>
+  </si>
+  <si>
+    <t>FE80::9</t>
+  </si>
+  <si>
+    <t>FE80::A</t>
+  </si>
+  <si>
+    <t>FE80::B</t>
+  </si>
+  <si>
+    <t>FE80::C</t>
+  </si>
+  <si>
+    <t>FE80::D</t>
+  </si>
+  <si>
+    <t>FE80::E</t>
+  </si>
+  <si>
+    <t>FE80::F</t>
+  </si>
+  <si>
+    <t>FE80::10</t>
+  </si>
+  <si>
+    <t>FE80::11</t>
+  </si>
+  <si>
+    <t>FE80::12</t>
+  </si>
+  <si>
+    <t>FE80::13</t>
+  </si>
+  <si>
+    <t>FE80::14</t>
+  </si>
+  <si>
+    <t>FE80::15</t>
+  </si>
+  <si>
+    <t>FE80::16</t>
+  </si>
+  <si>
+    <t>FE80::17</t>
+  </si>
+  <si>
+    <t>FE80::18</t>
+  </si>
+  <si>
+    <t>FE80::19</t>
+  </si>
+  <si>
+    <t>FE80::1A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,14 +715,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -666,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1240,11 +1310,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1280,94 +1363,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,56 +1585,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,13 +1618,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,18 +1642,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,15 +1696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,70 +1708,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,11 +2081,11 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2018,915 +2109,915 @@
     </row>
     <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="50"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="8">
         <v>10</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="8">
         <v>10</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="44">
         <f>ROUNDUP(H6*1.1,0)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44">
         <f>ROUNDUP(I6/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21">
+      <c r="L6" s="44"/>
+      <c r="M6" s="44">
         <f>ROUNDUP(I6+K6,0)</f>
         <v>12</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44">
         <f>M6+2</f>
         <v>14</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="1">
         <v>31</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="24">
         <f>ROUNDUP(H7*1.1,0)</f>
         <v>35</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="19">
+      <c r="J7" s="25"/>
+      <c r="K7" s="26">
         <f>ROUNDUP(I7/24,0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26">
         <f>ROUNDUP(I7+K7,0)</f>
         <v>37</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26">
         <f t="shared" ref="O7:O30" si="0">M7+2</f>
         <v>39</v>
       </c>
-      <c r="P7" s="20"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1">
         <v>200</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="24">
         <f t="shared" ref="I8:I29" si="1">ROUNDUP(H8*1.1,0)</f>
         <v>220</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="19">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26">
         <f t="shared" ref="K8:K29" si="2">ROUNDUP(I8/24,0)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26">
         <f t="shared" ref="M8:M29" si="3">ROUNDUP(I8+K8,0)</f>
         <v>230</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="P8" s="20"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="1">
         <v>40</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="24">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="19">
+      <c r="J9" s="25"/>
+      <c r="K9" s="26">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="P9" s="20"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1">
         <v>50</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="24">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="19">
+      <c r="J10" s="25"/>
+      <c r="K10" s="26">
         <v>1</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P10" s="20"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="1">
         <v>60</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="24">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="19">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P11" s="20"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="9">
         <v>110</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9">
         <v>50</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="15">
+      <c r="J12" s="23"/>
+      <c r="K12" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15">
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P12" s="16"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="9">
         <v>120</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="22">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="15">
+      <c r="J13" s="23"/>
+      <c r="K13" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P13" s="16"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="9">
         <v>130</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="10">
         <v>33</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="15">
+      <c r="J14" s="23"/>
+      <c r="K14" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15">
+      <c r="L14" s="28"/>
+      <c r="M14" s="28">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15">
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P14" s="16"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="9">
         <v>140</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9">
         <v>133</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="15">
+      <c r="J15" s="23"/>
+      <c r="K15" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="P15" s="16"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="9">
         <v>150</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="9">
         <v>200</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="22">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="15">
+      <c r="J16" s="23"/>
+      <c r="K16" s="28">
         <v>1</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
+      <c r="L16" s="28"/>
+      <c r="M16" s="28">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15">
+      <c r="N16" s="28"/>
+      <c r="O16" s="28">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="P16" s="16"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="9">
         <v>160</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9">
         <v>20</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="15">
+      <c r="J17" s="23"/>
+      <c r="K17" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      <c r="L17" s="28"/>
+      <c r="M17" s="28">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="1">
         <v>210</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="24">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="19">
+      <c r="J18" s="25"/>
+      <c r="K18" s="26">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
+      <c r="N18" s="26"/>
+      <c r="O18" s="26">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="P18" s="20"/>
+      <c r="P18" s="48"/>
     </row>
     <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="1">
         <v>220</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="1">
         <v>20</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="24">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="19">
+      <c r="J19" s="25"/>
+      <c r="K19" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19">
+      <c r="L19" s="26"/>
+      <c r="M19" s="26">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19">
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P19" s="20"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="1">
         <v>230</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="19">
+      <c r="J20" s="25"/>
+      <c r="K20" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19">
+      <c r="L20" s="26"/>
+      <c r="M20" s="26">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19">
+      <c r="N20" s="26"/>
+      <c r="O20" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P20" s="20"/>
+      <c r="P20" s="48"/>
     </row>
     <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="1">
         <v>240</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="1">
         <v>205</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="24">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="19">
+      <c r="J21" s="25"/>
+      <c r="K21" s="26">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19">
+      <c r="N21" s="26"/>
+      <c r="O21" s="26">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="P21" s="20"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="1">
         <v>250</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="24">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="19">
+      <c r="J22" s="25"/>
+      <c r="K22" s="26">
         <v>1</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19">
+      <c r="L22" s="26"/>
+      <c r="M22" s="26">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19">
+      <c r="N22" s="26"/>
+      <c r="O22" s="26">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="P22" s="20"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="1">
         <v>260</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="1">
         <v>30</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="24">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="19">
+      <c r="J23" s="25"/>
+      <c r="K23" s="26">
         <v>1</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19">
+      <c r="L23" s="26"/>
+      <c r="M23" s="26">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19">
+      <c r="N23" s="26"/>
+      <c r="O23" s="26">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P23" s="20"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="9">
         <v>310</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9">
         <v>20</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="15">
+      <c r="J24" s="23"/>
+      <c r="K24" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15">
+      <c r="L24" s="28"/>
+      <c r="M24" s="28">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15">
+      <c r="N24" s="28"/>
+      <c r="O24" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P24" s="16"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="9">
         <v>320</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9">
         <v>50</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="22">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="15">
+      <c r="J25" s="23"/>
+      <c r="K25" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15">
+      <c r="L25" s="28"/>
+      <c r="M25" s="28">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15">
+      <c r="N25" s="28"/>
+      <c r="O25" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P25" s="16"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="9">
         <v>330</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9">
         <v>16</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="22">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="15">
+      <c r="J26" s="23"/>
+      <c r="K26" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15">
+      <c r="L26" s="28"/>
+      <c r="M26" s="28">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15">
+      <c r="N26" s="28"/>
+      <c r="O26" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P26" s="16"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="9">
         <v>340</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9">
         <v>166</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="22">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="15">
+      <c r="J27" s="23"/>
+      <c r="K27" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15">
+      <c r="L27" s="28"/>
+      <c r="M27" s="28">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15">
+      <c r="N27" s="28"/>
+      <c r="O27" s="28">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="P27" s="16"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="9">
         <v>350</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9">
         <v>40</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="22">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="15">
+      <c r="J28" s="23"/>
+      <c r="K28" s="28">
         <v>1</v>
       </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15">
+      <c r="L28" s="28"/>
+      <c r="M28" s="28">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15">
+      <c r="N28" s="28"/>
+      <c r="O28" s="28">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="P28" s="16"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="9">
         <v>360</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9">
         <v>20</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="15">
+      <c r="J29" s="23"/>
+      <c r="K29" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15">
+      <c r="L29" s="28"/>
+      <c r="M29" s="28">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15">
+      <c r="N29" s="28"/>
+      <c r="O29" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P29" s="16"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11">
         <v>370</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="11">
         <v>5</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="29">
         <f>ROUNDUP(H30*1.1,0)</f>
         <v>6</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="17">
+      <c r="J30" s="30"/>
+      <c r="K30" s="27">
         <f>ROUNDUP(I30/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27">
         <f>ROUNDUP(I30+K30,0)</f>
         <v>7</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17">
+      <c r="N30" s="27"/>
+      <c r="O30" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P30" s="18"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B32" s="12"/>
@@ -2960,37 +3051,77 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:C17"/>
     <mergeCell ref="B18:C23"/>
@@ -3015,63 +3146,40 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="B6:C11"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
@@ -3079,23 +3187,6 @@
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,480 +3204,538 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="F6" s="49" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="F6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="82"/>
+      <c r="I6" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="85">
         <v>4</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="G7" s="86"/>
+      <c r="I7" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="61"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63" t="s">
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="67"/>
     </row>
     <row r="20" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="19" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="19" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="19" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="48"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="48"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="19" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="19" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="19" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="48"/>
     </row>
     <row r="35" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="71" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="52"/>
+      <c r="F35" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71" t="s">
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:H34"/>
@@ -3603,64 +3752,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="I31:K31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3679,280 +3770,280 @@
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="72"/>
+      <c r="N3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63">
         <f>ANALISIS!M8</f>
         <v>230</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="N6" s="49" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="66"/>
+      <c r="N6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f>ANALISIS!M9</f>
         <v>115</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63" t="s">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="N7" s="54" t="s">
+      <c r="L7" s="66"/>
+      <c r="N7" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="79"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55">
         <f>ANALISIS!M10</f>
         <v>56</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55">
         <f>ANALISIS!M7</f>
         <v>37</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55">
         <f>ANALISIS!M11</f>
         <v>23</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
         <v>12</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="67"/>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.45">
@@ -3962,11 +4053,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -3983,23 +4086,11 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4021,290 +4112,302 @@
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="97" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="97" t="s">
+      <c r="I3" s="117"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="120"/>
+      <c r="N3" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="102"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="121"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="106">
+      <c r="C5" s="123"/>
+      <c r="D5" s="124">
         <f>ANALISIS!M16</f>
         <v>221</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="108" t="s">
+      <c r="F5" s="126"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="108" t="s">
+      <c r="I5" s="126"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="110"/>
+      <c r="L5" s="127"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="105"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="90"/>
-      <c r="N6" s="49" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="109"/>
+      <c r="N6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="112">
+      <c r="C7" s="99"/>
+      <c r="D7" s="102">
         <f>ANALISIS!M15</f>
         <v>154</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="83" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="83" t="s">
+      <c r="I7" s="105"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="N7" s="54" t="s">
+      <c r="L7" s="108"/>
+      <c r="N7" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="79"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="105"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="90"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="109"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="112">
+      <c r="C9" s="99"/>
+      <c r="D9" s="102">
         <f>ANALISIS!M12</f>
         <v>58</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="83" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="83" t="s">
+      <c r="I9" s="105"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="108"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="105"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="90"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="109"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="112">
+      <c r="C11" s="99"/>
+      <c r="D11" s="102">
         <f>ANALISIS!M14</f>
         <v>39</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="105"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55">
         <f>ANALISIS!M17</f>
         <v>23</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
         <f>ANALISIS!M13</f>
         <v>12</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -4321,23 +4424,11 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4355,290 +4446,302 @@
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="72"/>
+      <c r="N3" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="106">
+      <c r="C5" s="123"/>
+      <c r="D5" s="124">
         <f>ANALISIS!M21</f>
         <v>236</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="105"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="N6" s="49" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="66"/>
+      <c r="N6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f>ANALISIS!M22</f>
         <v>111</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63" t="s">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="66"/>
+      <c r="N7" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55">
         <f>ANALISIS!M18</f>
         <v>81</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="63">
+      <c r="C11" s="99"/>
+      <c r="D11" s="55">
         <f>ANALISIS!M23</f>
         <v>34</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="105"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55">
         <f>ANALISIS!M19</f>
         <v>23</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
         <f>ANALISIS!M20</f>
         <v>7</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -4655,23 +4758,11 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4689,332 +4780,339 @@
   <sheetData>
     <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="72"/>
+      <c r="N3" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63">
         <f>ANALISIS!M27</f>
         <v>191</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="N6" s="49" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="66"/>
+      <c r="N6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f>ANALISIS!M25</f>
         <v>58</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63" t="s">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="66"/>
+      <c r="N7" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55">
         <f>ANALISIS!M28</f>
         <v>45</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55">
         <f>ANALISIS!M24</f>
         <v>23</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55">
         <f>ANALISIS!M29</f>
         <v>23</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
         <f>ANALISIS!M26</f>
         <v>19</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55">
         <f>ANALISIS!M30</f>
         <v>7</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63" t="s">
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E3:G4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="H7:J8"/>
@@ -5031,23 +5129,16 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5058,7 +5149,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5066,348 +5157,478 @@
     <col min="2" max="2" width="21.19921875" customWidth="1"/>
     <col min="3" max="3" width="21.46484375" customWidth="1"/>
     <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="69" t="s">
         <v>166</v>
       </c>
+      <c r="F3" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="134"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="20">
         <v>10</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="20" t="s">
         <v>140</v>
       </c>
+      <c r="F5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="119"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="130"/>
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="14">
         <v>20</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="14" t="s">
         <v>141</v>
       </c>
+      <c r="F6" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="119"/>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="130"/>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="14">
         <v>30</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="14" t="s">
         <v>142</v>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="119"/>
-      <c r="C8" s="114" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="14">
         <v>40</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="14" t="s">
         <v>143</v>
       </c>
+      <c r="F8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="119"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="14">
         <v>50</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="14" t="s">
         <v>144</v>
       </c>
+      <c r="F9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="119"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="14">
         <v>60</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="14" t="s">
         <v>146</v>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="14">
         <v>110</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="14" t="s">
         <v>147</v>
       </c>
+      <c r="F11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="119"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="115">
+      <c r="D12" s="14">
         <v>120</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="14" t="s">
         <v>148</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="119"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="14">
         <v>130</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="14" t="s">
         <v>149</v>
       </c>
+      <c r="F13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="119"/>
-      <c r="C14" s="114" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="14">
         <v>140</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="14" t="s">
         <v>150</v>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="132"/>
       <c r="I14" s="132"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="119"/>
-      <c r="C15" s="114" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="14">
         <v>150</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="14" t="s">
         <v>151</v>
       </c>
+      <c r="F15" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="119"/>
-      <c r="C16" s="114" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="14">
         <v>160</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="119" t="s">
+      <c r="F16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="14">
         <v>210</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="119"/>
-      <c r="C18" s="114" t="s">
+      <c r="F17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="130"/>
+      <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="14">
         <v>220</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="14" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="119"/>
-      <c r="C19" s="114" t="s">
+      <c r="F18" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="130"/>
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="14">
         <v>230</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="119"/>
-      <c r="C20" s="114" t="s">
+      <c r="F19" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="130"/>
+      <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="14">
         <v>240</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="119"/>
-      <c r="C21" s="114" t="s">
+      <c r="F20" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="130"/>
+      <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="14">
         <v>250</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="119"/>
-      <c r="C22" s="114" t="s">
+      <c r="F21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="130"/>
+      <c r="C22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="14">
         <v>260</v>
       </c>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="119" t="s">
+      <c r="F22" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="14">
         <v>310</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="119"/>
-      <c r="C24" s="114" t="s">
+      <c r="F23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="130"/>
+      <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="14">
         <v>320</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="14" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="119"/>
-      <c r="C25" s="114" t="s">
+      <c r="F24" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="130"/>
+      <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="14">
         <v>330</v>
       </c>
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="119"/>
-      <c r="C26" s="114" t="s">
+      <c r="F25" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="130"/>
+      <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26" s="14">
         <v>340</v>
       </c>
-      <c r="E26" s="120" t="s">
+      <c r="E26" s="14" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="119"/>
-      <c r="C27" s="114" t="s">
+      <c r="F26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="130"/>
+      <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="14">
         <v>350</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="14" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="119"/>
-      <c r="C28" s="114" t="s">
+      <c r="F27" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="130"/>
+      <c r="C28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="14">
         <v>360</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="121"/>
-      <c r="C29" s="122" t="s">
+      <c r="F28" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="131"/>
+      <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="17">
         <v>370</v>
       </c>
-      <c r="E29" s="124" t="s">
+      <c r="E29" s="17" t="s">
         <v>165</v>
       </c>
+      <c r="F29" s="18" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Direccionamiento.xlsx
+++ b/Direccionamiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\Caso de Estudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\University\Caso-de-Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1138A6-5C3C-42B6-ABC8-1791516698B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724491B8-E3C3-496D-81E9-A8ABC475B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="6" xr2:uid="{061D41F9-92AE-4054-8BBD-64FFFB87EB4D}"/>
+    <workbookView xWindow="41172" yWindow="4176" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{061D41F9-92AE-4054-8BBD-64FFFB87EB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="ANALISIS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <sheet name="SEDE05" sheetId="6" r:id="rId5"/>
     <sheet name="SEDE16" sheetId="7" r:id="rId6"/>
     <sheet name="IPV6" sheetId="8" r:id="rId7"/>
+    <sheet name="DISPOSITIVOS" sheetId="9" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="299">
   <si>
     <t>LAN ID</t>
   </si>
@@ -425,9 +429,6 @@
     <t>TOTAL DIRECCIONES NECESRIAS</t>
   </si>
   <si>
-    <t>ENLACES</t>
-  </si>
-  <si>
     <t>10.5.130.96/28</t>
   </si>
   <si>
@@ -446,18 +447,6 @@
     <t>10.5.193.239</t>
   </si>
   <si>
-    <t>MASCARA</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>ROUTER</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -545,48 +534,6 @@
     <t>IPV6</t>
   </si>
   <si>
-    <t>10.5.0.1</t>
-  </si>
-  <si>
-    <t>255.255.192.0</t>
-  </si>
-  <si>
-    <t>10.5.0.2</t>
-  </si>
-  <si>
-    <t>10.5.0.3</t>
-  </si>
-  <si>
-    <t>10.5.0.4</t>
-  </si>
-  <si>
-    <t>10.5.0.5</t>
-  </si>
-  <si>
-    <t>10.5.0.6</t>
-  </si>
-  <si>
-    <t>10.5.0.8</t>
-  </si>
-  <si>
-    <t>10.5.64.1</t>
-  </si>
-  <si>
-    <t>10.5.64.2</t>
-  </si>
-  <si>
-    <t>10..5.128.1</t>
-  </si>
-  <si>
-    <t>10..5.128.2</t>
-  </si>
-  <si>
-    <t>10.5.192.1</t>
-  </si>
-  <si>
-    <t>LINK LOCAL</t>
-  </si>
-  <si>
     <t>FE80::2</t>
   </si>
   <si>
@@ -617,49 +564,385 @@
     <t>FE80::B</t>
   </si>
   <si>
-    <t>FE80::C</t>
-  </si>
-  <si>
-    <t>FE80::D</t>
-  </si>
-  <si>
-    <t>FE80::E</t>
-  </si>
-  <si>
-    <t>FE80::F</t>
-  </si>
-  <si>
-    <t>FE80::10</t>
-  </si>
-  <si>
-    <t>FE80::11</t>
-  </si>
-  <si>
-    <t>FE80::12</t>
-  </si>
-  <si>
-    <t>FE80::13</t>
-  </si>
-  <si>
-    <t>FE80::14</t>
-  </si>
-  <si>
-    <t>FE80::15</t>
-  </si>
-  <si>
-    <t>FE80::16</t>
-  </si>
-  <si>
-    <t>FE80::17</t>
-  </si>
-  <si>
-    <t>FE80::18</t>
-  </si>
-  <si>
-    <t>FE80::19</t>
-  </si>
-  <si>
-    <t>FE80::1A</t>
+    <t>10.5.2.48/30</t>
+  </si>
+  <si>
+    <t>10.5.2.49 - 10.5.2.50</t>
+  </si>
+  <si>
+    <t>10.5.2.51</t>
+  </si>
+  <si>
+    <t>10.5.2.52/30</t>
+  </si>
+  <si>
+    <t>10.5.2.53 - 10.5.2.54</t>
+  </si>
+  <si>
+    <t>10.5.2.55</t>
+  </si>
+  <si>
+    <t>10.5.2.56/30</t>
+  </si>
+  <si>
+    <t>10.5.2.57 - 10.5.2.58</t>
+  </si>
+  <si>
+    <t>10.5.2.59</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>IPv6 Link-Local</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>P-Router</t>
+  </si>
+  <si>
+    <t>Fa0/0</t>
+  </si>
+  <si>
+    <t>10.5.2.53/30</t>
+  </si>
+  <si>
+    <t>10.5.2.57/30</t>
+  </si>
+  <si>
+    <t>Serial1/0</t>
+  </si>
+  <si>
+    <t>Serial2/0</t>
+  </si>
+  <si>
+    <t>10.5.2.49/30</t>
+  </si>
+  <si>
+    <t>Gig4/0</t>
+  </si>
+  <si>
+    <t>Gig5/0</t>
+  </si>
+  <si>
+    <t>Gig6/0</t>
+  </si>
+  <si>
+    <t>Gig7/0</t>
+  </si>
+  <si>
+    <t>Gig8/0</t>
+  </si>
+  <si>
+    <t>Gig9/0</t>
+  </si>
+  <si>
+    <t>10.5.2.1/27</t>
+  </si>
+  <si>
+    <t>10.5.1.129/26</t>
+  </si>
+  <si>
+    <t>10.5.1.1/25</t>
+  </si>
+  <si>
+    <t>10.5.0.1/24</t>
+  </si>
+  <si>
+    <t>10.5.1.193/26</t>
+  </si>
+  <si>
+    <t>10.5.2.33/28</t>
+  </si>
+  <si>
+    <t>10.5.2.50/30</t>
+  </si>
+  <si>
+    <t>33-Router</t>
+  </si>
+  <si>
+    <t>Serial0/0</t>
+  </si>
+  <si>
+    <t>10.5.64.1/24</t>
+  </si>
+  <si>
+    <t>10.5.66.129/27</t>
+  </si>
+  <si>
+    <t>10.5.65.1/24</t>
+  </si>
+  <si>
+    <t>Gig3/0</t>
+  </si>
+  <si>
+    <t>10.5.66.65/26</t>
+  </si>
+  <si>
+    <t>10.5.66.161/28</t>
+  </si>
+  <si>
+    <t>10.5.66.1/26</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>P-ZZ</t>
+  </si>
+  <si>
+    <t>P-YY</t>
+  </si>
+  <si>
+    <t>P-XX</t>
+  </si>
+  <si>
+    <t>05-Router</t>
+  </si>
+  <si>
+    <t>10.5.2.54/30</t>
+  </si>
+  <si>
+    <t>10.5.130.1/26</t>
+  </si>
+  <si>
+    <t>10.5.129.1/25</t>
+  </si>
+  <si>
+    <t>10.5.128.1/24</t>
+  </si>
+  <si>
+    <t>10.5.130.97/28</t>
+  </si>
+  <si>
+    <t>10.5.130.65/27</t>
+  </si>
+  <si>
+    <t>10.5.129.129/25</t>
+  </si>
+  <si>
+    <t>16-Router</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA: 12345678</t>
+  </si>
+  <si>
+    <t>10.5.193.161/27</t>
+  </si>
+  <si>
+    <t>10.5.193.225/28</t>
+  </si>
+  <si>
+    <t>10.5.193.65/26</t>
+  </si>
+  <si>
+    <t>10.5.192.1/24</t>
+  </si>
+  <si>
+    <t>10.5.193.193/27</t>
+  </si>
+  <si>
+    <t>10.5.193.1/26</t>
+  </si>
+  <si>
+    <t>10.5.193.129/27</t>
+  </si>
+  <si>
+    <t>VLAN 1</t>
+  </si>
+  <si>
+    <t>P-Rectoria</t>
+  </si>
+  <si>
+    <t>P-Administrativos_1</t>
+  </si>
+  <si>
+    <t>P-Administrativos</t>
+  </si>
+  <si>
+    <t>P-Profesores</t>
+  </si>
+  <si>
+    <t>P-Profesores_1</t>
+  </si>
+  <si>
+    <t>P-Profesores_2</t>
+  </si>
+  <si>
+    <t>P-Profesores_3</t>
+  </si>
+  <si>
+    <t>P-Profesores_4</t>
+  </si>
+  <si>
+    <t>P-Profesores_5</t>
+  </si>
+  <si>
+    <t>P-Profesores_6</t>
+  </si>
+  <si>
+    <t>P-Profesores_7</t>
+  </si>
+  <si>
+    <t>P-Profesores_8</t>
+  </si>
+  <si>
+    <t>P-Profesores_9</t>
+  </si>
+  <si>
+    <t>P-Estudiantes</t>
+  </si>
+  <si>
+    <t>P-Estudiantes_1</t>
+  </si>
+  <si>
+    <t>P-Estudiantes_2</t>
+  </si>
+  <si>
+    <t>P-Estudiantes_3</t>
+  </si>
+  <si>
+    <t>P-Estudiantes_4</t>
+  </si>
+  <si>
+    <t>P-GestionTIC</t>
+  </si>
+  <si>
+    <t>P-InvitadosWLAN</t>
+  </si>
+  <si>
+    <t>10.5.2.34/28</t>
+  </si>
+  <si>
+    <t>10.5.1.194/26</t>
+  </si>
+  <si>
+    <t>10.5.1.195/26</t>
+  </si>
+  <si>
+    <t>10.5.0.2/24</t>
+  </si>
+  <si>
+    <t>10.5.0.3/24</t>
+  </si>
+  <si>
+    <t>10.5.0.4/24</t>
+  </si>
+  <si>
+    <t>10.5.0.5/24</t>
+  </si>
+  <si>
+    <t>10.5.0.6/24</t>
+  </si>
+  <si>
+    <t>10.5.0.7/24</t>
+  </si>
+  <si>
+    <t>10.5.0.8/24</t>
+  </si>
+  <si>
+    <t>10.5.0.9/24</t>
+  </si>
+  <si>
+    <t>10.5.0.10/24</t>
+  </si>
+  <si>
+    <t>10.5.0.11/24</t>
+  </si>
+  <si>
+    <t>10.5.1.2/25</t>
+  </si>
+  <si>
+    <t>10.5.1.3/25</t>
+  </si>
+  <si>
+    <t>10.5.1.4/25</t>
+  </si>
+  <si>
+    <t>10.5.1.5/25</t>
+  </si>
+  <si>
+    <t>10.5.1.6/25</t>
+  </si>
+  <si>
+    <t>10.5.2.2/27</t>
+  </si>
+  <si>
+    <t>10.5.1.130/26</t>
+  </si>
+  <si>
+    <t>2000:acad:1:a::1/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:14:1/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:14::2/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::1/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::2/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::3/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::4/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::5/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::6/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::7/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::8/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::9/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:1e::a/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::1/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::2/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::3/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::4/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:28::5/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:3c::1/64</t>
+  </si>
+  <si>
+    <t>2000:acad:1:32::1/64</t>
   </si>
 </sst>
 </file>
@@ -716,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,8 +1018,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1310,24 +1599,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,6 +1666,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,33 +1708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,61 +1744,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1594,9 +1849,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,24 +1963,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,8 +1996,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ANALISIS"/>
+      <sheetName val="SUBNET SEDES"/>
+      <sheetName val="PRINCIPAL"/>
+      <sheetName val="SEDE33"/>
+      <sheetName val="SEDE05"/>
+      <sheetName val="SEDE16"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="M7">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>230</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>23</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2065,27 +2367,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9FD331-E8CA-4B62-85F8-56473C7CA557}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" customWidth="1"/>
-    <col min="10" max="12" width="11.265625" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" customWidth="1"/>
-    <col min="16" max="16" width="17.9296875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="10" max="12" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2095,8 +2397,13 @@
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="5">
         <v>33</v>
       </c>
@@ -2107,919 +2414,919 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="42" t="s">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="50"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="45" t="s">
+      <c r="P5" s="49"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="8">
         <v>10</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="8">
         <v>10</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="45">
         <f>ROUNDUP(H6*1.1,0)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45">
         <f>ROUNDUP(I6/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45">
         <f>ROUNDUP(I6+K6,0)</f>
         <v>12</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44">
+      <c r="N6" s="45"/>
+      <c r="O6" s="45">
         <f>M6+2</f>
         <v>14</v>
       </c>
-      <c r="P6" s="47"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="1">
         <v>31</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="34">
         <f>ROUNDUP(H7*1.1,0)</f>
         <v>35</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26">
+      <c r="J7" s="35"/>
+      <c r="K7" s="31">
         <f>ROUNDUP(I7/24,0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26">
+      <c r="L7" s="31"/>
+      <c r="M7" s="31">
         <f>ROUNDUP(I7+K7,0)</f>
         <v>37</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26">
+      <c r="N7" s="31"/>
+      <c r="O7" s="31">
         <f t="shared" ref="O7:O30" si="0">M7+2</f>
         <v>39</v>
       </c>
-      <c r="P7" s="48"/>
-    </row>
-    <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="1">
         <v>200</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="34">
         <f t="shared" ref="I8:I29" si="1">ROUNDUP(H8*1.1,0)</f>
         <v>220</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26">
+      <c r="J8" s="35"/>
+      <c r="K8" s="31">
         <f t="shared" ref="K8:K29" si="2">ROUNDUP(I8/24,0)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31">
         <f t="shared" ref="M8:M29" si="3">ROUNDUP(I8+K8,0)</f>
         <v>230</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26">
+      <c r="N8" s="31"/>
+      <c r="O8" s="31">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="1">
         <v>40</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="34">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26">
+      <c r="J9" s="35"/>
+      <c r="K9" s="31">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26">
+      <c r="N9" s="31"/>
+      <c r="O9" s="31">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="P9" s="48"/>
-    </row>
-    <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="1">
         <v>50</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="34">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26">
+      <c r="J10" s="35"/>
+      <c r="K10" s="31">
         <v>1</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26">
+      <c r="L10" s="31"/>
+      <c r="M10" s="31">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26">
+      <c r="N10" s="31"/>
+      <c r="O10" s="31">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="1">
         <v>60</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="34">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26">
+      <c r="J11" s="35"/>
+      <c r="K11" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
+      <c r="L11" s="31"/>
+      <c r="M11" s="31">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26">
+      <c r="N11" s="31"/>
+      <c r="O11" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="38" t="s">
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="9">
         <v>110</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="9">
         <v>50</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="32">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="28">
+      <c r="J12" s="33"/>
+      <c r="K12" s="24">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="9">
         <v>120</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="28">
+      <c r="J13" s="33"/>
+      <c r="K13" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="24"/>
+      <c r="O13" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="9">
         <v>130</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="10">
         <v>33</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="32">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="28">
+      <c r="J14" s="33"/>
+      <c r="K14" s="24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28">
+      <c r="N14" s="24"/>
+      <c r="O14" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P14" s="49"/>
-    </row>
-    <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="9">
         <v>140</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="9">
         <v>133</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="32">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="28">
+      <c r="J15" s="33"/>
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="9">
         <v>150</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="9">
         <v>200</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="32">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="28">
+      <c r="J16" s="33"/>
+      <c r="K16" s="24">
         <v>1</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="9">
         <v>160</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="9">
         <v>20</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="32">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="28">
+      <c r="J17" s="33"/>
+      <c r="K17" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
+      <c r="N17" s="24"/>
+      <c r="O17" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="40" t="s">
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="1">
         <v>210</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="34">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26">
+      <c r="J18" s="35"/>
+      <c r="K18" s="31">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26">
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="P18" s="48"/>
-    </row>
-    <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="1">
         <v>220</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="1">
         <v>20</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="34">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26">
+      <c r="J19" s="35"/>
+      <c r="K19" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P19" s="48"/>
-    </row>
-    <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="1">
         <v>230</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26">
+      <c r="J20" s="35"/>
+      <c r="K20" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26">
+      <c r="N20" s="31"/>
+      <c r="O20" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="1">
         <v>240</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="1">
         <v>205</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="34">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26">
+      <c r="J21" s="35"/>
+      <c r="K21" s="31">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26">
+      <c r="L21" s="31"/>
+      <c r="M21" s="31">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26">
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="P21" s="51"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="1">
         <v>250</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="34">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26">
+      <c r="J22" s="35"/>
+      <c r="K22" s="31">
         <v>1</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26">
+      <c r="N22" s="31"/>
+      <c r="O22" s="31">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
+      <c r="P22" s="51"/>
+    </row>
+    <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="1">
         <v>260</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="1">
         <v>30</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="34">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26">
+      <c r="J23" s="35"/>
+      <c r="K23" s="31">
         <v>1</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26">
+      <c r="L23" s="31"/>
+      <c r="M23" s="31">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26">
+      <c r="N23" s="31"/>
+      <c r="O23" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P23" s="48"/>
-    </row>
-    <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="31" t="s">
+      <c r="P23" s="51"/>
+    </row>
+    <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="9">
         <v>310</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="9">
         <v>20</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="32">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="28">
+      <c r="J24" s="33"/>
+      <c r="K24" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28">
+      <c r="L24" s="24"/>
+      <c r="M24" s="24">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28">
+      <c r="N24" s="24"/>
+      <c r="O24" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="9">
         <v>320</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="9">
         <v>50</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="32">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="28">
+      <c r="J25" s="33"/>
+      <c r="K25" s="24">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28">
+      <c r="L25" s="24"/>
+      <c r="M25" s="24">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28">
+      <c r="N25" s="24"/>
+      <c r="O25" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="9">
         <v>330</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="9">
         <v>16</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="32">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="28">
+      <c r="J26" s="33"/>
+      <c r="K26" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28">
+      <c r="L26" s="24"/>
+      <c r="M26" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28">
+      <c r="N26" s="24"/>
+      <c r="O26" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P26" s="49"/>
-    </row>
-    <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="P26" s="48"/>
+    </row>
+    <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="9">
         <v>340</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="9">
         <v>166</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="32">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="28">
+      <c r="J27" s="33"/>
+      <c r="K27" s="24">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28">
+      <c r="L27" s="24"/>
+      <c r="M27" s="24">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28">
+      <c r="N27" s="24"/>
+      <c r="O27" s="24">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="9">
         <v>350</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="9">
         <v>40</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="32">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="28">
+      <c r="J28" s="33"/>
+      <c r="K28" s="24">
         <v>1</v>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28">
+      <c r="L28" s="24"/>
+      <c r="M28" s="24">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28">
+      <c r="N28" s="24"/>
+      <c r="O28" s="24">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="P28" s="49"/>
-    </row>
-    <row r="29" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="9">
         <v>360</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="9">
         <v>20</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="32">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="28">
+      <c r="J29" s="33"/>
+      <c r="K29" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28">
+      <c r="L29" s="24"/>
+      <c r="M29" s="24">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28">
+      <c r="N29" s="24"/>
+      <c r="O29" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+      <c r="P29" s="48"/>
+    </row>
+    <row r="30" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="11">
         <v>370</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="11">
         <v>5</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="25">
         <f>ROUNDUP(H30*1.1,0)</f>
         <v>6</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="27">
+      <c r="J30" s="26"/>
+      <c r="K30" s="23">
         <f>ROUNDUP(I30/24,0)</f>
         <v>1</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23">
         <f>ROUNDUP(I30+K30,0)</f>
         <v>7</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27">
+      <c r="N30" s="23"/>
+      <c r="O30" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P30" s="51"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="P30" s="50"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3034,7 +3341,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3050,7 +3357,8 @@
       <c r="N33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="137">
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="O27:P27"/>
@@ -3075,8 +3383,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
@@ -3084,12 +3390,19 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
@@ -3098,14 +3411,8 @@
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I12:J12"/>
@@ -3117,11 +3424,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:C17"/>
     <mergeCell ref="B18:C23"/>
@@ -3170,8 +3472,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="I30:J30"/>
@@ -3184,9 +3484,17 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,489 +3503,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEEC393-913C-4EDE-94F6-F7D5E5ACCE03}">
-  <dimension ref="B3:L35"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-    </row>
-    <row r="5" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="80" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="F6" s="80" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="F6" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="I6" s="80" t="s">
+      <c r="G6" s="75"/>
+      <c r="I6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="82"/>
-    </row>
-    <row r="7" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="83" t="s">
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="78">
         <v>4</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="I7" s="85" t="s">
+      <c r="G7" s="79"/>
+      <c r="I7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="68" t="s">
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="54" t="s">
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="54" t="s">
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="66"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="54" t="s">
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="20" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="47"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="48"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="48"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="27">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:G6"/>
@@ -3705,53 +3736,6 @@
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F15:H16"/>
     <mergeCell ref="I15:J16"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3763,296 +3747,404 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H15" sqref="H15:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="N3" s="91" t="s">
+      <c r="L3" s="65"/>
+      <c r="N3" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="62" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63">
-        <f>ANALISIS!M8</f>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54">
+        <f>[1]ANALISIS!M8</f>
         <v>230</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="90"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="66"/>
-      <c r="N6" s="80" t="s">
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="59"/>
+      <c r="N6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="54" t="s">
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
-        <f>ANALISIS!M9</f>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54">
+        <f>[1]ANALISIS!M9</f>
         <v>115</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="N7" s="85" t="s">
+      <c r="L7" s="59"/>
+      <c r="N7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="89"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="66"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55">
-        <f>ANALISIS!M10</f>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54">
+        <f>[1]ANALISIS!M10</f>
         <v>56</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="66"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="54" t="s">
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55">
-        <f>ANALISIS!M7</f>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54">
+        <f>[1]ANALISIS!M7</f>
         <v>37</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55">
-        <f>ANALISIS!M11</f>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54">
+        <f>[1]ANALISIS!M11</f>
         <v>23</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="54" t="s">
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54">
         <v>12</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="67"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54">
+        <v>2</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54">
+        <v>2</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54">
+        <v>2</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="53">
     <mergeCell ref="E7:G8"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="N3:P4"/>
@@ -4091,6 +4183,21 @@
     <mergeCell ref="E15:G16"/>
     <mergeCell ref="H15:J16"/>
     <mergeCell ref="K15:L16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="K21:L22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4102,292 +4209,292 @@
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G8"/>
+      <selection activeCell="B5" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.06640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="110" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="114" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="116" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="116" t="s">
+      <c r="I3" s="109"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="N3" s="91" t="s">
+      <c r="L3" s="112"/>
+      <c r="N3" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="121"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="122" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+    </row>
+    <row r="4" spans="2:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="113"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116">
         <f>ANALISIS!M16</f>
         <v>221</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="125" t="s">
+      <c r="F5" s="118"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="125" t="s">
+      <c r="I5" s="118"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="127"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="109"/>
-      <c r="N6" s="80" t="s">
+      <c r="L5" s="119"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="101"/>
+      <c r="N6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="98" t="s">
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="102">
+      <c r="C7" s="91"/>
+      <c r="D7" s="94">
         <f>ANALISIS!M15</f>
         <v>154</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="104" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="104" t="s">
+      <c r="I7" s="97"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="108"/>
-      <c r="N7" s="85" t="s">
+      <c r="L7" s="100"/>
+      <c r="N7" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="89"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="109"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="101"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="102">
+      <c r="C9" s="91"/>
+      <c r="D9" s="94">
         <f>ANALISIS!M12</f>
         <v>58</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="104" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="104" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="108"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="109"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="98" t="s">
+      <c r="L9" s="100"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="101"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="102">
+      <c r="C11" s="91"/>
+      <c r="D11" s="94">
         <f>ANALISIS!M14</f>
         <v>39</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54">
         <f>ANALISIS!M17</f>
         <v>23</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="54" t="s">
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54">
         <f>ANALISIS!M13</f>
         <v>12</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="67"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -4439,289 +4546,289 @@
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G12"/>
+      <selection activeCell="H9" sqref="H9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="N3" s="91" t="s">
+      <c r="L3" s="65"/>
+      <c r="N3" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="122" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116">
         <f>ANALISIS!M21</f>
         <v>236</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="90"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="66"/>
-      <c r="N6" s="80" t="s">
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="59"/>
+      <c r="N6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="54" t="s">
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54">
         <f>ANALISIS!M22</f>
         <v>111</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="N7" s="83" t="s">
+      <c r="L7" s="59"/>
+      <c r="N7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="84"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="66"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54">
         <f>ANALISIS!M18</f>
         <v>81</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="66"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="98" t="s">
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="55">
+      <c r="C11" s="91"/>
+      <c r="D11" s="54">
         <f>ANALISIS!M23</f>
         <v>34</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54">
         <f>ANALISIS!M19</f>
         <v>23</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="54" t="s">
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54">
         <f>ANALISIS!M20</f>
         <v>7</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="67"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -4773,326 +4880,326 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G14"/>
+      <selection activeCell="H11" sqref="H11:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="N3" s="91" t="s">
+      <c r="L3" s="65"/>
+      <c r="N3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="62" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58">
         <f>ANALISIS!M27</f>
         <v>191</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="90"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="66"/>
-      <c r="N6" s="80" t="s">
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="59"/>
+      <c r="N6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="54" t="s">
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54">
         <f>ANALISIS!M25</f>
         <v>58</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="N7" s="83" t="s">
+      <c r="L7" s="59"/>
+      <c r="N7" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="84"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="66"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54">
         <f>ANALISIS!M28</f>
         <v>45</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="66"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="54" t="s">
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54">
         <f>ANALISIS!M24</f>
         <v>23</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54">
         <f>ANALISIS!M29</f>
         <v>23</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="54" t="s">
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54">
         <f>ANALISIS!M26</f>
         <v>19</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="66"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="54" t="s">
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54">
         <f>ANALISIS!M30</f>
         <v>7</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55" t="s">
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="66"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="67"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5146,155 +5253,132 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCE0CA-9C82-4A8D-8FB0-DCE29C925582}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-    </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="134"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="129" t="s">
+      <c r="E3" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="20">
         <v>10</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="130"/>
+      <c r="E5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="122"/>
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="14">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="130"/>
+      <c r="E6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="14">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="130"/>
+      <c r="E7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
         <v>40</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="130"/>
+      <c r="E8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="122"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="14">
         <v>50</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="130"/>
+      <c r="E9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="122"/>
       <c r="C10" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D10" s="14">
         <v>60</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="130" t="s">
+      <c r="E10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="122" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -5303,102 +5387,84 @@
       <c r="D11" s="14">
         <v>110</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="130"/>
+      <c r="E11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="122"/>
       <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="14">
         <v>120</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="130"/>
+      <c r="E12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="122"/>
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="14">
         <v>130</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="130"/>
+      <c r="E13" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="122"/>
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="14">
         <v>140</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="130"/>
+      <c r="E14" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="122"/>
       <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="14">
         <v>150</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="130"/>
+      <c r="E15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="122"/>
       <c r="C16" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16" s="14">
         <v>160</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="130" t="s">
+      <c r="E16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="122" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5407,102 +5473,84 @@
       <c r="D17" s="14">
         <v>210</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="130"/>
+      <c r="E17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="14">
         <v>220</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="130"/>
+      <c r="E18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="122"/>
       <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="14">
         <v>230</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="130"/>
+      <c r="E19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="122"/>
       <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="14">
         <v>240</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="130"/>
+      <c r="E20" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="14">
         <v>250</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="130"/>
+      <c r="E21" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="122"/>
       <c r="C22" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D22" s="14">
         <v>260</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="130" t="s">
+      <c r="E22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="122" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -5511,116 +5559,94 @@
       <c r="D23" s="14">
         <v>310</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="130"/>
+      <c r="E23" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="122"/>
       <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="14">
         <v>320</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="130"/>
+      <c r="E24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="122"/>
       <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="14">
         <v>330</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="130"/>
+      <c r="E25" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="122"/>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14">
         <v>340</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="130"/>
+      <c r="E26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="122"/>
       <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="14">
         <v>350</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="130"/>
+      <c r="E27" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="122"/>
       <c r="C28" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D28" s="14">
         <v>360</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="131"/>
+      <c r="E28" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="123"/>
       <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="17">
         <v>370</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>205</v>
+      <c r="E29" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="8">
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -5632,4 +5658,1103 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045BB9B8-24FA-4FD0-8B71-411FFF89D50D}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" t="s">
+        <v>280</v>
+      </c>
+      <c r="H34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="125" t="s">
+        <v>297</v>
+      </c>
+      <c r="H51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>298</v>
+      </c>
+      <c r="H52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>